--- a/Calculs_Moyennes_Cir3.xlsx
+++ b/Calculs_Moyennes_Cir3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\ISEN\CIR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812DA054-F978-4BCF-8DCC-7EEF7D483FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B118D464-11CE-4070-876C-D6E07EB5A5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2DFCEF90-F8BD-48C2-B316-7553F6465BB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2DFCEF90-F8BD-48C2-B316-7553F6465BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Semestre 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="66">
   <si>
     <t>UE</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>CALCUL DES MOYENNES  -  CIR3  -  ANNÉE</t>
+  </si>
+  <si>
+    <t>yuuu10</t>
   </si>
 </sst>
 </file>
@@ -1695,34 +1698,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C80831-0CBF-48A4-8B0F-44B3AAFAFF65}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="9" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.08984375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" style="6"/>
-    <col min="13" max="13" width="15.6328125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="13.36328125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" style="6"/>
-    <col min="17" max="17" width="13.6328125" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="11.54296875" style="6"/>
+    <col min="4" max="4" width="22.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="6"/>
+    <col min="13" max="13" width="15.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="6"/>
+    <col min="17" max="17" width="13.6640625" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:23" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="27"/>
       <c r="C2" s="99" t="s">
@@ -1749,7 +1752,7 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
     </row>
-    <row r="3" spans="1:23" s="12" customFormat="1" ht="45.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" s="12" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="17" t="s">
         <v>0</v>
@@ -1806,7 +1809,7 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="21"/>
       <c r="C4" s="5"/>
@@ -1831,7 +1834,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="116" t="s">
         <v>11</v>
@@ -1865,27 +1868,27 @@
         <v>1</v>
       </c>
       <c r="L5" s="67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M5" s="40">
         <f>SUMPRODUCT(L5,K5)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="106">
         <f>SUMPRODUCT(M5:M7,I5:I7)</f>
-        <v>0</v>
+        <v>7.0750000000000002</v>
       </c>
       <c r="O5" s="106">
         <f>SUMPRODUCT(N5,G5)</f>
-        <v>0</v>
+        <v>7.0750000000000002</v>
       </c>
       <c r="P5" s="89">
         <f>SUM(O5*E5+O8*E8)/C5</f>
-        <v>0</v>
+        <v>7.66</v>
       </c>
       <c r="Q5" s="119">
         <f>SUM(P5*C5+P13*C13+P21*C21+P26*C26)/C32</f>
-        <v>0</v>
+        <v>11.143269230769231</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -1894,7 +1897,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="117"/>
       <c r="C6" s="90"/>
@@ -1915,11 +1918,11 @@
         <v>0.375</v>
       </c>
       <c r="L6" s="68">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="M6" s="107">
         <f>SUMPRODUCT(L6:L7,K6:K7)</f>
-        <v>0</v>
+        <v>7.34375</v>
       </c>
       <c r="N6" s="107"/>
       <c r="O6" s="107"/>
@@ -1932,7 +1935,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="117"/>
       <c r="C7" s="90"/>
@@ -1949,7 +1952,8 @@
         <v>0.625</v>
       </c>
       <c r="L7" s="68">
-        <v>0</v>
+        <f>(7.25+7.25)/2</f>
+        <v>7.25</v>
       </c>
       <c r="M7" s="107"/>
       <c r="N7" s="107"/>
@@ -1963,7 +1967,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
     </row>
-    <row r="8" spans="1:23" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="117"/>
       <c r="C8" s="90"/>
@@ -1992,19 +1996,19 @@
         <v>0.5</v>
       </c>
       <c r="L8" s="69">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="M8" s="92">
         <f>SUMPRODUCT(L8:L9,K8:K9)</f>
-        <v>0</v>
+        <v>5.9499999999999993</v>
       </c>
       <c r="N8" s="92">
         <f>SUMPRODUCT(M8,I8)</f>
-        <v>0</v>
+        <v>5.9499999999999993</v>
       </c>
       <c r="O8" s="92">
         <f>SUMPRODUCT(N8:N11,G8:G11)</f>
-        <v>0</v>
+        <v>8.2449999999999992</v>
       </c>
       <c r="P8" s="90"/>
       <c r="Q8" s="119"/>
@@ -2015,7 +2019,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="117"/>
       <c r="C9" s="90"/>
@@ -2032,7 +2036,8 @@
         <v>0.5</v>
       </c>
       <c r="L9" s="70">
-        <v>0</v>
+        <f>(4.6+4.6)/2</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M9" s="95"/>
       <c r="N9" s="95"/>
@@ -2046,7 +2051,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="117"/>
       <c r="C10" s="90"/>
@@ -2071,15 +2076,15 @@
         <v>0.375</v>
       </c>
       <c r="L10" s="71">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M10" s="93">
         <f>SUMPRODUCT(L10:L11,K10:K11)</f>
-        <v>0</v>
+        <v>11.6875</v>
       </c>
       <c r="N10" s="93">
         <f>SUMPRODUCT(M10,I10)</f>
-        <v>0</v>
+        <v>11.6875</v>
       </c>
       <c r="O10" s="93"/>
       <c r="P10" s="90"/>
@@ -2091,7 +2096,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="118"/>
       <c r="C11" s="91"/>
@@ -2108,7 +2113,7 @@
         <v>0.625</v>
       </c>
       <c r="L11" s="72">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="M11" s="110"/>
       <c r="N11" s="110"/>
@@ -2122,7 +2127,7 @@
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
     </row>
-    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="23"/>
       <c r="C12" s="9"/>
@@ -2147,7 +2152,7 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="111" t="s">
         <v>25</v>
@@ -2181,23 +2186,23 @@
         <v>1</v>
       </c>
       <c r="L13" s="67">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M13" s="40">
         <f>SUMPRODUCT(L13,K13)</f>
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N13" s="40">
         <f>SUMPRODUCT(M13,I13)</f>
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="O13" s="106">
         <f>SUMPRODUCT(N13:N14,G13:G14)</f>
-        <v>0</v>
+        <v>8.7949999999999999</v>
       </c>
       <c r="P13" s="89">
         <f>SUM(O13*E13+O15*E15+O18*E18)/C13</f>
-        <v>0</v>
+        <v>10.355833333333335</v>
       </c>
       <c r="Q13" s="119"/>
       <c r="R13" s="7"/>
@@ -2207,7 +2212,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="112"/>
       <c r="C14" s="90"/>
@@ -2232,15 +2237,16 @@
         <v>1</v>
       </c>
       <c r="L14" s="68">
-        <v>0</v>
+        <f>(5.78+13)/2</f>
+        <v>9.39</v>
       </c>
       <c r="M14" s="41">
         <f>SUMPRODUCT(L14,K14)</f>
-        <v>0</v>
+        <v>9.39</v>
       </c>
       <c r="N14" s="41">
         <f>SUMPRODUCT(M14,I14)</f>
-        <v>0</v>
+        <v>9.39</v>
       </c>
       <c r="O14" s="107"/>
       <c r="P14" s="90"/>
@@ -2252,7 +2258,7 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="112"/>
       <c r="C15" s="90"/>
@@ -2281,19 +2287,19 @@
         <v>0.5</v>
       </c>
       <c r="L15" s="69">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="M15" s="92">
         <f>SUMPRODUCT(L15:L16,K15:K16)</f>
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="N15" s="92">
         <f>SUMPRODUCT(M15:M17,I15:I17)</f>
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="O15" s="92">
         <f>SUMPRODUCT(N15,G15)</f>
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="P15" s="90"/>
       <c r="Q15" s="119"/>
@@ -2304,7 +2310,7 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="112"/>
       <c r="C16" s="90"/>
@@ -2321,7 +2327,7 @@
         <v>0.5</v>
       </c>
       <c r="L16" s="70">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M16" s="95"/>
       <c r="N16" s="93"/>
@@ -2335,7 +2341,7 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="112"/>
       <c r="C17" s="90"/>
@@ -2356,11 +2362,12 @@
         <v>1</v>
       </c>
       <c r="L17" s="71">
-        <v>0</v>
+        <f>(5.5+10)/2</f>
+        <v>7.75</v>
       </c>
       <c r="M17" s="44">
         <f>SUMPRODUCT(L17,K17)</f>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="N17" s="93"/>
       <c r="O17" s="93"/>
@@ -2373,7 +2380,7 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="112"/>
       <c r="C18" s="90"/>
@@ -2402,19 +2409,19 @@
         <v>1</v>
       </c>
       <c r="L18" s="73">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M18" s="48">
         <f>SUMPRODUCT(L18,K18)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N18" s="48">
         <f>SUMPRODUCT(M18,I18)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O18" s="108">
         <f>SUMPRODUCT(N18:N19,G18:G19)</f>
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="P18" s="90"/>
       <c r="Q18" s="119"/>
@@ -2425,7 +2432,7 @@
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
     </row>
-    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="113"/>
       <c r="C19" s="91"/>
@@ -2450,15 +2457,15 @@
         <v>1</v>
       </c>
       <c r="L19" s="74">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="M19" s="49">
         <f>SUMPRODUCT(L19,K19)</f>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="N19" s="49">
         <f>SUMPRODUCT(M19,I19)</f>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="O19" s="109"/>
       <c r="P19" s="91"/>
@@ -2470,7 +2477,7 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
     </row>
-    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="23"/>
       <c r="C20" s="9"/>
@@ -2495,7 +2502,7 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="111" t="s">
         <v>31</v>
@@ -2529,23 +2536,23 @@
         <v>0.5</v>
       </c>
       <c r="L21" s="75">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M21" s="94">
         <f>SUMPRODUCT(L21:L22,K21:K22)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N21" s="94">
         <f>SUMPRODUCT(M21,I21)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O21" s="94">
         <f>SUMPRODUCT(N21:N24,G21:G24)</f>
-        <v>0</v>
+        <v>12.625</v>
       </c>
       <c r="P21" s="89">
         <f>SUM(O21*E21)/C21</f>
-        <v>0</v>
+        <v>12.625</v>
       </c>
       <c r="Q21" s="119"/>
       <c r="R21" s="7"/>
@@ -2555,7 +2562,7 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="112"/>
       <c r="C22" s="90"/>
@@ -2572,7 +2579,7 @@
         <v>0.5</v>
       </c>
       <c r="L22" s="70">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M22" s="95"/>
       <c r="N22" s="95"/>
@@ -2586,7 +2593,7 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="112"/>
       <c r="C23" s="90"/>
@@ -2611,15 +2618,15 @@
         <v>0.5</v>
       </c>
       <c r="L23" s="71">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="M23" s="93">
         <f>SUMPRODUCT(L23:L24,K23:K24)</f>
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="N23" s="93">
         <f>SUMPRODUCT(M23,I23)</f>
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="O23" s="93"/>
       <c r="P23" s="90"/>
@@ -2631,7 +2638,7 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
     </row>
-    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="113"/>
       <c r="C24" s="91"/>
@@ -2648,7 +2655,7 @@
         <v>0.5</v>
       </c>
       <c r="L24" s="72">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="M24" s="110"/>
       <c r="N24" s="110"/>
@@ -2662,7 +2669,7 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
     </row>
-    <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="23"/>
       <c r="C25" s="9"/>
@@ -2687,7 +2694,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
     </row>
-    <row r="26" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="111" t="s">
         <v>34</v>
@@ -2713,17 +2720,17 @@
         <v>1</v>
       </c>
       <c r="L26" s="76">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="M26" s="106">
         <f t="shared" ref="M26:M31" si="0">SUMPRODUCT(L26,K26)</f>
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="N26" s="106"/>
       <c r="O26" s="106"/>
       <c r="P26" s="89">
         <f>SUM(M26*E26+M27*E27+M28*E28+M29*E29+M30*E30+M31*E31)/C26</f>
-        <v>0</v>
+        <v>13.234999999999999</v>
       </c>
       <c r="Q26" s="119"/>
       <c r="R26" s="7"/>
@@ -2733,7 +2740,7 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="112"/>
       <c r="C27" s="90"/>
@@ -2754,11 +2761,11 @@
         <v>1</v>
       </c>
       <c r="L27" s="77">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M27" s="114">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N27" s="114"/>
       <c r="O27" s="114"/>
@@ -2771,7 +2778,7 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="112"/>
       <c r="C28" s="90"/>
@@ -2792,11 +2799,11 @@
         <v>1</v>
       </c>
       <c r="L28" s="68">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M28" s="107">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N28" s="107"/>
       <c r="O28" s="107"/>
@@ -2809,7 +2816,7 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="112"/>
       <c r="C29" s="90"/>
@@ -2830,11 +2837,11 @@
         <v>1</v>
       </c>
       <c r="L29" s="77">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M29" s="114">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N29" s="114"/>
       <c r="O29" s="114"/>
@@ -2847,7 +2854,7 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="112"/>
       <c r="C30" s="90"/>
@@ -2868,11 +2875,11 @@
         <v>1</v>
       </c>
       <c r="L30" s="78">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M30" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N30" s="115"/>
       <c r="O30" s="115"/>
@@ -2885,7 +2892,7 @@
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
     </row>
-    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="113"/>
       <c r="C31" s="91"/>
@@ -2906,11 +2913,11 @@
         <v>1</v>
       </c>
       <c r="L31" s="72">
-        <v>0</v>
+        <v>13.38</v>
       </c>
       <c r="M31" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.38</v>
       </c>
       <c r="N31" s="110"/>
       <c r="O31" s="110"/>
@@ -2923,7 +2930,7 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
     </row>
-    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="37" t="s">
         <v>62</v>
@@ -2953,7 +2960,7 @@
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2978,7 +2985,7 @@
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3003,7 +3010,7 @@
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3028,7 +3035,7 @@
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3053,7 +3060,7 @@
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -3195,30 +3202,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8130C7-DF55-45CB-8D67-133C39EB853D}">
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" customWidth="1"/>
-    <col min="18" max="18" width="12.36328125" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3245,7 +3252,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="31.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="29"/>
       <c r="C2" s="136" t="s">
@@ -3274,7 +3281,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="13" t="s">
         <v>0</v>
@@ -3335,7 +3342,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="34"/>
       <c r="C4" s="10"/>
@@ -3362,7 +3369,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="111" t="s">
         <v>11</v>
@@ -3399,27 +3406,27 @@
         <v>1</v>
       </c>
       <c r="M5" s="76">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="50">
         <f>SUMPRODUCT(M5,L5)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5" s="106">
         <f>SUMPRODUCT(N5:N7,J5:J7)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P5" s="106">
         <f>SUMPRODUCT(O5,H5)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="89">
         <f>(P5*F5+P8*F8+P12*F12+P16*F16)/C5</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R5" s="119">
         <f>(Q5*C5+Q20*C20+Q35*C35+Q46*C46+N56*C56+N58*C58)/C59</f>
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -3429,7 +3436,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="112"/>
       <c r="C6" s="90"/>
@@ -3451,11 +3458,11 @@
         <v>0.375</v>
       </c>
       <c r="M6" s="79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N6" s="122">
         <f>SUMPRODUCT(M6:M7,L6:L7)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O6" s="107"/>
       <c r="P6" s="107"/>
@@ -3469,7 +3476,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="112"/>
       <c r="C7" s="90"/>
@@ -3487,7 +3494,7 @@
         <v>0.625</v>
       </c>
       <c r="M7" s="80">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N7" s="123"/>
       <c r="O7" s="107"/>
@@ -3502,7 +3509,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="112"/>
       <c r="C8" s="90"/>
@@ -3532,19 +3539,19 @@
         <v>0.5</v>
       </c>
       <c r="M8" s="69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8" s="92">
         <f>SUMPRODUCT(M8:M9,L8:L9)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O8" s="92">
         <f>SUMPRODUCT(N8,J8)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P8" s="92">
         <f>SUMPRODUCT(O8:O11,H8:H11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="90"/>
       <c r="R8" s="119"/>
@@ -3556,7 +3563,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="112"/>
       <c r="C9" s="90"/>
@@ -3574,7 +3581,7 @@
         <v>0.5</v>
       </c>
       <c r="M9" s="71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N9" s="93"/>
       <c r="O9" s="93"/>
@@ -3589,7 +3596,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="112"/>
       <c r="C10" s="90"/>
@@ -3615,15 +3622,15 @@
         <v>0.375</v>
       </c>
       <c r="M10" s="81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N10" s="124">
         <f>SUMPRODUCT(M10:M11,L10:L11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O10" s="124">
         <f>SUMPRODUCT(N10,J10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P10" s="93"/>
       <c r="Q10" s="90"/>
@@ -3636,7 +3643,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="112"/>
       <c r="C11" s="90"/>
@@ -3654,7 +3661,7 @@
         <v>0.625</v>
       </c>
       <c r="M11" s="82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N11" s="125"/>
       <c r="O11" s="125"/>
@@ -3669,7 +3676,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="112"/>
       <c r="C12" s="90"/>
@@ -3701,19 +3708,19 @@
         <v>1</v>
       </c>
       <c r="M12" s="83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N12" s="54">
         <f>SUMPRODUCT(M12,L12)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O12" s="108">
         <f>SUMPRODUCT(N12:N14,J12:J14)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P12" s="108">
         <f>SUMPRODUCT(O12:O15,H12:H15)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="90"/>
       <c r="R12" s="119"/>
@@ -3725,7 +3732,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="112"/>
       <c r="C13" s="90"/>
@@ -3747,11 +3754,11 @@
         <v>0.375</v>
       </c>
       <c r="M13" s="79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13" s="122">
         <f>SUMPRODUCT(M13:M14,L13:L14)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O13" s="107"/>
       <c r="P13" s="107"/>
@@ -3765,7 +3772,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="112"/>
       <c r="C14" s="90"/>
@@ -3783,7 +3790,7 @@
         <v>0.625</v>
       </c>
       <c r="M14" s="84">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N14" s="121"/>
       <c r="O14" s="107"/>
@@ -3798,7 +3805,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="112"/>
       <c r="C15" s="90"/>
@@ -3824,15 +3831,15 @@
         <v>1</v>
       </c>
       <c r="M15" s="85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N15" s="55">
         <f>SUMPRODUCT(M15,L15)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O15" s="55">
         <f>SUMPRODUCT(N15,J15)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P15" s="123"/>
       <c r="Q15" s="90"/>
@@ -3845,7 +3852,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="112"/>
       <c r="C16" s="90"/>
@@ -3875,19 +3882,19 @@
         <v>1</v>
       </c>
       <c r="M16" s="71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N16" s="44">
         <f>SUMPRODUCT(M16,L16)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O16" s="93">
         <f>SUMPRODUCT(N16:N18,J16:J18)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P16" s="93">
         <f>SUMPRODUCT(O16,H16)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="90"/>
       <c r="R16" s="119"/>
@@ -3899,7 +3906,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="112"/>
       <c r="C17" s="90"/>
@@ -3921,11 +3928,11 @@
         <v>0.375</v>
       </c>
       <c r="M17" s="81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N17" s="124">
         <f>SUMPRODUCT(M17:M18,L17:L18)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O17" s="93"/>
       <c r="P17" s="93"/>
@@ -3939,7 +3946,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="113"/>
       <c r="C18" s="91"/>
@@ -3957,7 +3964,7 @@
         <v>0.625</v>
       </c>
       <c r="M18" s="72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N18" s="110"/>
       <c r="O18" s="110"/>
@@ -3972,7 +3979,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="23"/>
       <c r="C19" s="5"/>
@@ -3999,7 +4006,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="111" t="s">
         <v>25</v>
@@ -4036,23 +4043,23 @@
         <v>1</v>
       </c>
       <c r="M20" s="76">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N20" s="50">
         <f>SUMPRODUCT(M20,L20)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O20" s="50">
         <f>SUMPRODUCT(N20,J20)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P20" s="106">
         <f>SUMPRODUCT(O20:O21,H20:H21)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="89">
         <f>(P20*F20+P22*F22+P25*F25+P27*F27+P29*F29+P32*F32)/C20</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="R20" s="119"/>
       <c r="S20" s="3"/>
@@ -4063,7 +4070,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="112"/>
       <c r="C21" s="90"/>
@@ -4089,15 +4096,15 @@
         <v>1</v>
       </c>
       <c r="M21" s="85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N21" s="55">
         <f>SUMPRODUCT(M21,L21)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O21" s="55">
         <f>SUMPRODUCT(N21,J21)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P21" s="107"/>
       <c r="Q21" s="90"/>
@@ -4110,7 +4117,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="112"/>
       <c r="C22" s="90"/>
@@ -4140,19 +4147,19 @@
         <v>0.5</v>
       </c>
       <c r="M22" s="69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N22" s="92">
         <f>SUMPRODUCT(M22:M23,L22:L23)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O22" s="92">
         <f>SUMPRODUCT(N22:N24,J22:J24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P22" s="92">
         <f>SUMPRODUCT(O22,H22)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="90"/>
       <c r="R22" s="119"/>
@@ -4164,7 +4171,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="112"/>
       <c r="C23" s="90"/>
@@ -4182,7 +4189,7 @@
         <v>0.5</v>
       </c>
       <c r="M23" s="70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N23" s="95"/>
       <c r="O23" s="93"/>
@@ -4197,7 +4204,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="112"/>
       <c r="C24" s="90"/>
@@ -4218,8 +4225,8 @@
       <c r="L24" s="59">
         <v>1</v>
       </c>
-      <c r="M24" s="82">
-        <v>0</v>
+      <c r="M24" s="82" t="s">
+        <v>65</v>
       </c>
       <c r="N24" s="59">
         <f>SUMPRODUCT(M24,L24)</f>
@@ -4237,7 +4244,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="112"/>
       <c r="C25" s="90"/>
@@ -4267,19 +4274,19 @@
         <v>1</v>
       </c>
       <c r="M25" s="68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N25" s="62">
         <f>SUMPRODUCT(M25,L25)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O25" s="41">
         <f>SUMPRODUCT(N25,J25)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P25" s="107">
         <f>SUMPRODUCT(O25:O26,H25:H26)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="90"/>
       <c r="R25" s="119"/>
@@ -4291,7 +4298,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="112"/>
       <c r="C26" s="90"/>
@@ -4317,15 +4324,15 @@
         <v>1</v>
       </c>
       <c r="M26" s="79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N26" s="41">
         <f>SUMPRODUCT(M26,L26)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O26" s="55">
         <f>SUMPRODUCT(N26,J26)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P26" s="107"/>
       <c r="Q26" s="90"/>
@@ -4338,7 +4345,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="112"/>
       <c r="C27" s="90"/>
@@ -4370,19 +4377,19 @@
         <v>1</v>
       </c>
       <c r="M27" s="86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N27" s="61">
         <f>SUMPRODUCT(M27,L27)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O27" s="42">
         <f>SUMPRODUCT(N27,J27)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P27" s="92">
         <f>SUMPRODUCT(O27:O28,H27:H28)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="90"/>
       <c r="R27" s="119"/>
@@ -4394,7 +4401,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="112"/>
       <c r="C28" s="90"/>
@@ -4420,15 +4427,15 @@
         <v>1</v>
       </c>
       <c r="M28" s="82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N28" s="44">
         <f>SUMPRODUCT(M28,L28)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O28" s="59">
         <f>SUMPRODUCT(N28,J28)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P28" s="125"/>
       <c r="Q28" s="90"/>
@@ -4441,7 +4448,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="112"/>
       <c r="C29" s="90"/>
@@ -4471,19 +4478,19 @@
         <v>0.5</v>
       </c>
       <c r="M29" s="83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N29" s="108">
         <f>SUMPRODUCT(M29:M30,L29:L30)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O29" s="108">
         <f>SUMPRODUCT(N29,J29)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P29" s="107">
         <f>SUMPRODUCT(O29:O31,H29:H31)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="90"/>
       <c r="R29" s="119"/>
@@ -4495,7 +4502,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="112"/>
       <c r="C30" s="90"/>
@@ -4513,7 +4520,7 @@
         <v>0.5</v>
       </c>
       <c r="M30" s="84">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N30" s="121"/>
       <c r="O30" s="121"/>
@@ -4528,7 +4535,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="112"/>
       <c r="C31" s="90"/>
@@ -4554,15 +4561,15 @@
         <v>1</v>
       </c>
       <c r="M31" s="68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N31" s="41">
         <f>SUMPRODUCT(M31,L31)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O31" s="41">
         <f>SUMPRODUCT(N31,J31)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P31" s="107"/>
       <c r="Q31" s="90"/>
@@ -4575,7 +4582,7 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="112"/>
       <c r="C32" s="90"/>
@@ -4605,19 +4612,19 @@
         <v>0.5</v>
       </c>
       <c r="M32" s="69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N32" s="92">
         <f>SUMPRODUCT(M32:M33,L32:L33)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O32" s="92">
         <f>SUMPRODUCT(N32,J32)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P32" s="92">
         <f>SUMPRODUCT(O32,H32)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="90"/>
       <c r="R32" s="119"/>
@@ -4629,7 +4636,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="113"/>
       <c r="C33" s="91"/>
@@ -4647,7 +4654,7 @@
         <v>0.5</v>
       </c>
       <c r="M33" s="72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N33" s="110"/>
       <c r="O33" s="110"/>
@@ -4662,7 +4669,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="21"/>
       <c r="C34" s="5"/>
@@ -4689,7 +4696,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="111" t="s">
         <v>31</v>
@@ -4726,23 +4733,23 @@
         <v>0.5</v>
       </c>
       <c r="M35" s="76">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N35" s="106">
         <f>SUMPRODUCT(M35:M36,L35:L36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O35" s="106">
         <f>SUMPRODUCT(N35,J35)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P35" s="106">
         <f>SUMPRODUCT(O35:O38,H35:H38)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q35" s="89">
         <f>(P35*F35+P39*F39+P42*F42)/C35</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R35" s="119"/>
       <c r="S35" s="3"/>
@@ -4753,7 +4760,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="112"/>
       <c r="C36" s="90"/>
@@ -4771,7 +4778,7 @@
         <v>0.5</v>
       </c>
       <c r="M36" s="84">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N36" s="121"/>
       <c r="O36" s="121"/>
@@ -4786,7 +4793,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="112"/>
       <c r="C37" s="90"/>
@@ -4812,15 +4819,15 @@
         <v>0.5</v>
       </c>
       <c r="M37" s="68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N37" s="107">
         <f>SUMPRODUCT(M37:M38,L37:L38)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O37" s="107">
         <f>SUMPRODUCT(N37,J37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P37" s="107"/>
       <c r="Q37" s="90"/>
@@ -4833,7 +4840,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="112"/>
       <c r="C38" s="90"/>
@@ -4851,7 +4858,7 @@
         <v>0.5</v>
       </c>
       <c r="M38" s="68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N38" s="107"/>
       <c r="O38" s="107"/>
@@ -4866,7 +4873,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="112"/>
       <c r="C39" s="90"/>
@@ -4898,19 +4905,19 @@
         <v>0.5</v>
       </c>
       <c r="M39" s="69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N39" s="92">
         <f>SUMPRODUCT(M39:M40,L39:L40)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O39" s="92">
         <f>SUMPRODUCT(N39,J39)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P39" s="92">
         <f>SUMPRODUCT(O39:O41,H39:H41)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="90"/>
       <c r="R39" s="119"/>
@@ -4922,7 +4929,7 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="112"/>
       <c r="C40" s="90"/>
@@ -4940,7 +4947,7 @@
         <v>0.5</v>
       </c>
       <c r="M40" s="70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N40" s="95"/>
       <c r="O40" s="95"/>
@@ -4955,7 +4962,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="112"/>
       <c r="C41" s="90"/>
@@ -4981,15 +4988,15 @@
         <v>1</v>
       </c>
       <c r="M41" s="82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N41" s="59">
         <f>SUMPRODUCT(M41,L41)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O41" s="59">
         <f>SUMPRODUCT(N41,J41)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P41" s="125"/>
       <c r="Q41" s="90"/>
@@ -5002,7 +5009,7 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="112"/>
       <c r="C42" s="90"/>
@@ -5032,19 +5039,19 @@
         <v>1</v>
       </c>
       <c r="M42" s="73">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N42" s="48">
         <f>SUMPRODUCT(M42,L42)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O42" s="48">
         <f>SUMPRODUCT(N42,J42)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P42" s="107">
         <f>SUMPRODUCT(O42:O44,H42:H44)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q42" s="90"/>
       <c r="R42" s="119"/>
@@ -5056,7 +5063,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="112"/>
       <c r="C43" s="90"/>
@@ -5082,15 +5089,15 @@
         <v>0.5</v>
       </c>
       <c r="M43" s="68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N43" s="107">
         <f>SUMPRODUCT(M43:M44,L43:L44)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O43" s="107">
         <f>SUMPRODUCT(N43,J43)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P43" s="107"/>
       <c r="Q43" s="90"/>
@@ -5103,7 +5110,7 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="113"/>
       <c r="C44" s="91"/>
@@ -5121,7 +5128,7 @@
         <v>0.5</v>
       </c>
       <c r="M44" s="74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N44" s="109"/>
       <c r="O44" s="109"/>
@@ -5136,7 +5143,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="21"/>
       <c r="C45" s="5"/>
@@ -5163,7 +5170,7 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="111" t="s">
         <v>34</v>
@@ -5192,17 +5199,17 @@
         <v>1</v>
       </c>
       <c r="M46" s="75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N46" s="94">
         <f>SUMPRODUCT(M46,L46)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O46" s="94"/>
       <c r="P46" s="94"/>
       <c r="Q46" s="89">
         <f>(N46*F46+N47*F47+N48*F48+N49*F49+N50*F50+N51*F51+N52*F52+N53*F53+N54*F54)/C46</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R46" s="119"/>
       <c r="S46" s="3"/>
@@ -5213,7 +5220,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="112"/>
       <c r="C47" s="90"/>
@@ -5235,11 +5242,11 @@
         <v>1</v>
       </c>
       <c r="M47" s="78">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N47" s="130">
         <f>SUMPRODUCT(M47,L47)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O47" s="115"/>
       <c r="P47" s="115"/>
@@ -5253,7 +5260,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="112"/>
       <c r="C48" s="90"/>
@@ -5275,11 +5282,11 @@
         <v>1</v>
       </c>
       <c r="M48" s="71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N48" s="93">
         <f t="shared" ref="N48:N53" si="0">SUMPRODUCT(M48,L48)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O48" s="93"/>
       <c r="P48" s="93"/>
@@ -5293,7 +5300,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="112"/>
       <c r="C49" s="90"/>
@@ -5315,11 +5322,11 @@
         <v>1</v>
       </c>
       <c r="M49" s="78">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N49" s="130">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O49" s="115"/>
       <c r="P49" s="115"/>
@@ -5333,7 +5340,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="112"/>
       <c r="C50" s="90"/>
@@ -5355,11 +5362,11 @@
         <v>1</v>
       </c>
       <c r="M50" s="71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N50" s="93">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O50" s="93"/>
       <c r="P50" s="93"/>
@@ -5373,7 +5380,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="112"/>
       <c r="C51" s="90"/>
@@ -5395,11 +5402,11 @@
         <v>1</v>
       </c>
       <c r="M51" s="78">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N51" s="130">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O51" s="115"/>
       <c r="P51" s="115"/>
@@ -5413,7 +5420,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="112"/>
       <c r="C52" s="90"/>
@@ -5437,11 +5444,11 @@
         <v>1</v>
       </c>
       <c r="M52" s="71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N52" s="131">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O52" s="114"/>
       <c r="P52" s="114"/>
@@ -5455,7 +5462,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="112"/>
       <c r="C53" s="90"/>
@@ -5477,11 +5484,11 @@
         <v>1</v>
       </c>
       <c r="M53" s="78">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N53" s="107">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O53" s="107"/>
       <c r="P53" s="107"/>
@@ -5495,7 +5502,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="113"/>
       <c r="C54" s="91"/>
@@ -5517,11 +5524,11 @@
         <v>1</v>
       </c>
       <c r="M54" s="72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N54" s="132">
         <f>SUMPRODUCT(M54,L54)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O54" s="133"/>
       <c r="P54" s="133"/>
@@ -5535,7 +5542,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="21"/>
       <c r="C55" s="5"/>
@@ -5562,7 +5569,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="31" t="s">
         <v>24</v>
@@ -5588,11 +5595,11 @@
         <v>1</v>
       </c>
       <c r="M56" s="87">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N56" s="128">
         <f>SUMPRODUCT(M56,L56)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
@@ -5606,7 +5613,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="1:25" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:25" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="21"/>
       <c r="C57" s="5"/>
@@ -5633,7 +5640,7 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:25" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:25" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="31" t="s">
         <v>52</v>
@@ -5659,11 +5666,11 @@
         <v>1</v>
       </c>
       <c r="M58" s="88">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N58" s="129">
         <f>SUMPRODUCT(M58,L58)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O58" s="129"/>
       <c r="P58" s="129"/>
@@ -5677,7 +5684,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:25" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:25" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="38" t="s">
         <v>62</v>
       </c>
@@ -5701,7 +5708,7 @@
       <c r="Q59" s="28"/>
       <c r="R59" s="28"/>
     </row>
-    <row r="60" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QkbegKeCzUwLd9PdR3iVhQ4vOUShECFhFNpWmcrWk8df9gtYxIzt8dZb8UMjY5p2DQCqL06aKI9UPe+sTBgt4A==" saltValue="gAv04UfLQ1Hm6+Pn1RN7Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="157">
@@ -5889,6 +5896,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MigrationWizIdVersion xmlns="055e08f7-09ea-4ff4-9650-143d09164c5a" xsi:nil="true"/>
+    <MigrationWizIdPermissionLevels xmlns="055e08f7-09ea-4ff4-9650-143d09164c5a" xsi:nil="true"/>
+    <MigrationWizIdSecurityGroups xmlns="055e08f7-09ea-4ff4-9650-143d09164c5a" xsi:nil="true"/>
+    <MigrationWizIdDocumentLibraryPermissions xmlns="055e08f7-09ea-4ff4-9650-143d09164c5a" xsi:nil="true"/>
+    <MigrationWizId xmlns="055e08f7-09ea-4ff4-9650-143d09164c5a" xsi:nil="true"/>
+    <MigrationWizIdPermissions xmlns="055e08f7-09ea-4ff4-9650-143d09164c5a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004DB71C52E5EF7846A072BD4EEC24A371" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7cd2873b44f18b5585c61f0667c3fd34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="055e08f7-09ea-4ff4-9650-143d09164c5a" xmlns:ns4="2ec18346-3981-4e5a-a40a-9722ce5fb91a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ab1b253f7ca16e6be5b0d3449b6f032" ns3:_="" ns4:_="">
     <xsd:import namespace="055e08f7-09ea-4ff4-9650-143d09164c5a"/>
@@ -6153,29 +6182,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6B481F-1013-4151-AA97-03AFF0DB02D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MigrationWizIdVersion xmlns="055e08f7-09ea-4ff4-9650-143d09164c5a" xsi:nil="true"/>
-    <MigrationWizIdPermissionLevels xmlns="055e08f7-09ea-4ff4-9650-143d09164c5a" xsi:nil="true"/>
-    <MigrationWizIdSecurityGroups xmlns="055e08f7-09ea-4ff4-9650-143d09164c5a" xsi:nil="true"/>
-    <MigrationWizIdDocumentLibraryPermissions xmlns="055e08f7-09ea-4ff4-9650-143d09164c5a" xsi:nil="true"/>
-    <MigrationWizId xmlns="055e08f7-09ea-4ff4-9650-143d09164c5a" xsi:nil="true"/>
-    <MigrationWizIdPermissions xmlns="055e08f7-09ea-4ff4-9650-143d09164c5a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B261840-8CC2-4DBC-8C06-77063EC15F97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="2ec18346-3981-4e5a-a40a-9722ce5fb91a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="055e08f7-09ea-4ff4-9650-143d09164c5a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{275D91B0-C2B6-484F-8F10-326FE81710A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6192,29 +6224,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6B481F-1013-4151-AA97-03AFF0DB02D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B261840-8CC2-4DBC-8C06-77063EC15F97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2ec18346-3981-4e5a-a40a-9722ce5fb91a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="055e08f7-09ea-4ff4-9650-143d09164c5a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>